--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2027769.771038794</v>
+        <v>2131949.405489866</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9755679.082220627</v>
+        <v>9755679.082220629</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36.80199454068539</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>133.4456537194337</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,13 +822,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>129.1089485127727</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -874,10 +876,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>50.37561619149932</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>214.209867043365</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>228.5930019368665</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1056,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>134.7816847516323</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>35.00179869008803</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>188.1489909417857</v>
+        <v>292.9594311738717</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>108.8650834183956</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983812</v>
@@ -1339,22 +1341,22 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>192.1051251520122</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>127.5379405516711</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365948</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>185.4048731212365</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>39.83255574579148</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>171.1529885179052</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890409</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1844,13 +1846,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>14.90335196317984</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.3264904208969</v>
+        <v>33.58398714687265</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>91.87204320893736</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>126.5816737497794</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2603,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576165</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>88.27810958517581</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2807,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7215037338434</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3007,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>65.67353929277202</v>
+        <v>178.5134655978079</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3323,7 +3325,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3518,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144417</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,16 +3672,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>93.4044447618831</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710104</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229395</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>176.1811323375717</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>153.2646806878237</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>135.5636880601543</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1771.418012197379</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1413.152313590628</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>1027.364060992384</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>616.3781562027766</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>201.3057060477731</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V2" t="n">
-        <v>2755.806928794323</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W2" t="n">
-        <v>2755.806928794323</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X2" t="n">
-        <v>2382.341170533243</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y2" t="n">
-        <v>2382.341170533243</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4422,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4431,28 +4433,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2192.918367052238</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="C4" t="n">
-        <v>2023.982184124332</v>
+        <v>902.9739374073959</v>
       </c>
       <c r="D4" t="n">
-        <v>2023.982184124332</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>1876.069090541939</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888693</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>2482.335537089199</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W4" t="n">
-        <v>2192.918367052238</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="X4" t="n">
-        <v>2192.918367052238</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="Y4" t="n">
-        <v>2192.918367052238</v>
+        <v>1071.910120335303</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1986.901740067214</v>
+        <v>1878.169188758594</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1509.206671818182</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1150.940973211432</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4582,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265599</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2763.640912107148</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2763.640912107148</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y5" t="n">
-        <v>2373.501580131336</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.9890585374011</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C7" t="n">
-        <v>498.9890585374011</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D7" t="n">
-        <v>348.8724191250653</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143256</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143256</v>
+        <v>366.8959824513292</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>199.1931458260482</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610488</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046014</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W7" t="n">
-        <v>680.6375233676408</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>680.6375233676408</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y7" t="n">
-        <v>680.6375233676408</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1422.200456328342</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="C8" t="n">
-        <v>1422.200456328342</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="D8" t="n">
-        <v>1422.200456328342</v>
+        <v>1528.069587875904</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4799,13 +4801,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2304.808759915837</v>
       </c>
       <c r="Y8" t="n">
-        <v>1808.800296392464</v>
+        <v>1914.669427940025</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,19 +4889,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>794.6070935315613</v>
+        <v>588.3953084626816</v>
       </c>
       <c r="C10" t="n">
-        <v>625.6709106036544</v>
+        <v>588.3953084626816</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>588.3953084626816</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
@@ -4987,25 +4989,25 @@
         <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U10" t="n">
-        <v>1451.732625711218</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1197.048137505331</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W10" t="n">
-        <v>1197.048137505331</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X10" t="n">
-        <v>1197.048137505331</v>
+        <v>809.1878876062117</v>
       </c>
       <c r="Y10" t="n">
-        <v>976.255558361801</v>
+        <v>588.3953084626816</v>
       </c>
     </row>
     <row r="11">
@@ -5033,43 +5035,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5114,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021787</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327616</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>763.7541388327616</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>613.6374994204258</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5194,7 +5196,7 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704549</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806531</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630013</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5273,19 +5275,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5358,22 +5360,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.1035305473669</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C16" t="n">
-        <v>746.16734761946</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>596.0507082071242</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
-        <v>448.1376146247311</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>301.2476671268207</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>134.0515678417007</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>134.0515678417007</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5443,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831766</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625879</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588918</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.896109690897</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473669</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,19 +5512,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,7 +5536,7 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5603,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>840.8417932021787</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756786</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996073</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.972636491141</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5680,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5689,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2392.08784073087</v>
+        <v>2413.039864239985</v>
       </c>
       <c r="S22" t="n">
-        <v>2209.233006385774</v>
+        <v>2230.185029894889</v>
       </c>
       <c r="T22" t="n">
-        <v>1989.631541408715</v>
+        <v>2010.58356491783</v>
       </c>
       <c r="U22" t="n">
-        <v>1700.556314752913</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="V22" t="n">
-        <v>1445.871826547026</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W22" t="n">
-        <v>1156.454656510065</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X22" t="n">
-        <v>928.4651056120481</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y22" t="n">
-        <v>707.672526468518</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6020,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6071,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921476</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898186995</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
         <v>2516.421633107662</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2978.516248701935</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C25" t="n">
-        <v>2809.580065774028</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D25" t="n">
-        <v>2659.463426361692</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E25" t="n">
-        <v>2566.663382716301</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>2419.773435218391</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1560.525577339777</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y25" t="n">
-        <v>3160.164713532175</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6217,28 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972544</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O27" t="n">
-        <v>2092.798483612593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>265.073174061852</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6449,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J30" t="n">
-        <v>2231.588527385792</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K30" t="n">
-        <v>2231.588527385792</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L30" t="n">
-        <v>2726.914133601551</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>2978.613657539998</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>3606.211621094605</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>4158.121351333892</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>4581.74450082896</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597624</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597624</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468472</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797191</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.963083580261</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T34" t="n">
-        <v>2380.626175203724</v>
+        <v>4327.66168613652</v>
       </c>
       <c r="U34" t="n">
-        <v>2091.550948547922</v>
+        <v>4038.586459480718</v>
       </c>
       <c r="V34" t="n">
-        <v>1836.866460342035</v>
+        <v>4038.586459480718</v>
       </c>
       <c r="W34" t="n">
-        <v>1547.449290305074</v>
+        <v>3749.169289443757</v>
       </c>
       <c r="X34" t="n">
-        <v>1319.459739407057</v>
+        <v>3521.17973854574</v>
       </c>
       <c r="Y34" t="n">
-        <v>1098.667160263527</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -6968,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2757.723669558405</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C37" t="n">
-        <v>2588.787486630498</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D37" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>2438.670847218162</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W37" t="n">
-        <v>3388.154264430192</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X37" t="n">
-        <v>3160.164713532175</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y37" t="n">
-        <v>2939.372134388645</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611467</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004717</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406472</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616865</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.830887436272</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192815</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111737</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468472</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876693</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597624</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F40" t="n">
-        <v>411.9631215597624</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7372,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551878</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,64 +7399,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466577</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123006</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852892</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591812</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866616</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468472</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536465</v>
+        <v>3118.73869457197</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257396</v>
+        <v>2949.802511644064</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034134038</v>
+        <v>2799.685872231728</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310107</v>
+        <v>2651.772778649335</v>
       </c>
       <c r="F43" t="n">
-        <v>261.012762333092</v>
+        <v>2504.882831151424</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797194</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797194</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797194</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2269.00234384534</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.400878868281</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868281</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662394</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625433</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727416</v>
+        <v>3300.38715940221</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583886</v>
+        <v>3300.38715940221</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014779</v>
@@ -7664,34 +7666,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516145</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
         <v>402.7245934908939</v>
@@ -7798,58 +7800,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1840.528062267928</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1585.843574062041</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1296.426404025081</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>847.6442739835331</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23416,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.89602209489803</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>40.30478226780068</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.43328057277402</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>80.98465480592276</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>164.9286282187575</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>12.04875628922476</v>
+        <v>32.79125956324904</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>54.56191943763181</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>125.5559695740486</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>77.24602870709303</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>151.7319110345163</v>
+        <v>38.89198472948033</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>34.97276993489203</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>45.44677382459204</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25558,16 +25560,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>72.11969353038575</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>4.845153664072882</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>72.44497470121348</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.6207863290898</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>840134.0879475148</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516054</v>
+      </c>
+      <c r="C2" t="n">
         <v>595255.2831516055</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>595255.2831516056</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
@@ -26338,22 +26340,22 @@
         <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="L2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752542</v>
-      </c>
-      <c r="M2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319413</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319408</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184269</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26442,22 +26444,22 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184265</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184265</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184262</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26503,13 +26505,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
     </row>
     <row r="6">
@@ -26519,37 +26521,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.246020574</v>
+        <v>-934217.2460205744</v>
       </c>
       <c r="C6" t="n">
-        <v>394527.4997070183</v>
+        <v>394527.499707018</v>
       </c>
       <c r="D6" t="n">
-        <v>394527.4997070181</v>
+        <v>394527.4997070185</v>
       </c>
       <c r="E6" t="n">
-        <v>145039.4850321487</v>
+        <v>145039.485032149</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395045</v>
+        <v>470451.9468395046</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.9468395048</v>
+        <v>470451.946839504</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395044</v>
+        <v>470451.9468395049</v>
       </c>
       <c r="I6" t="n">
         <v>470451.9468395045</v>
       </c>
       <c r="J6" t="n">
-        <v>252920.7444422271</v>
+        <v>252920.744442227</v>
       </c>
       <c r="K6" t="n">
-        <v>470451.9468395046</v>
+        <v>470451.9468395047</v>
       </c>
       <c r="L6" t="n">
-        <v>470451.9468395045</v>
+        <v>470451.9468395047</v>
       </c>
       <c r="M6" t="n">
         <v>385396.9189039927</v>
@@ -26558,10 +26560,10 @@
         <v>470451.9468395045</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395045</v>
+        <v>470451.9468395046</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395044</v>
+        <v>470451.9468395047</v>
       </c>
     </row>
   </sheetData>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,22 +26816,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26960,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.9318471227952</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>161.1621106678867</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27540,13 +27542,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>19.50652450543961</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,10 +27596,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>201.7620271323287</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>167.7205030288968</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>120.6479667805465</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>11.65227789493687</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>109.7532162242327</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>193.7813791304761</v>
+        <v>88.9709388983901</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28010,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>37.56887922817361</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,22 +28061,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>94.10671305360069</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233474</v>
@@ -31622,7 +31624,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,16 +31849,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N12" t="n">
-        <v>602.8420149078232</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31867,7 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32078,31 +32080,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>245.8118639189577</v>
       </c>
       <c r="N15" t="n">
-        <v>428.7353800421378</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32321,25 +32323,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491737</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,22 +32554,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>248.7449369209194</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,22 +32791,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430268</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32815,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33029,19 +33031,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>272.9327299394437</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>270.9486956727241</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>213.1625787491741</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33737,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067253</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817597</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>363.5371514786841</v>
@@ -34235,13 +34237,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558009</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013291</v>
@@ -35270,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,10 +35485,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N12" t="n">
-        <v>471.5003028244899</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>103.6778299969394</v>
       </c>
       <c r="N15" t="n">
-        <v>297.3936679588045</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35878,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648388</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>73.18080466315214</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,22 +36202,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>110.1905571410452</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.1808046631526</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>130.3364854949992</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>128.8146617507058</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236319403</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367792</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>220.9409070342396</v>
@@ -37880,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113564</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2131949.405489866</v>
+        <v>2127936.795475873</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>133.4456537194337</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>214.2098670433659</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>129.1089485127727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>6.882988967595105</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>214.209867043365</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>194.5727296124804</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>35.00179869008803</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>149.2419515106227</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>292.9594311738717</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482967</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>108.8650834183956</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1308,10 +1308,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>65.29024472877059</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>185.4048731212365</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,10 +1821,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>171.1529885179052</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.90335196317984</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>35.56815683447337</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>33.58398714687265</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>171.5422171850884</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>126.5816737497794</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.7247859410132</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>140.7215037338434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,10 +3009,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>22.6126310577748</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>178.5134655978079</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>113.6427030833203</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>4.019807611472022</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>153.2646806878237</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>135.5636880601543</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.418012197379</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C2" t="n">
-        <v>1771.418012197379</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1413.152313590628</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1027.364060992384</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>616.3781562027766</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>201.3057060477731</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>3109.232218535064</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2778.169331191494</v>
       </c>
       <c r="W2" t="n">
-        <v>2531.48361052258</v>
+        <v>2425.400675921379</v>
       </c>
       <c r="X2" t="n">
-        <v>2158.017852261501</v>
+        <v>2051.9349176603</v>
       </c>
       <c r="Y2" t="n">
-        <v>2158.017852261501</v>
+        <v>1661.795585684488</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1071.910120335303</v>
+        <v>952.3490077683472</v>
       </c>
       <c r="C4" t="n">
-        <v>902.9739374073959</v>
+        <v>783.4128248404403</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>633.2961854281045</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>485.3830918457114</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>338.493144347801</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>170.79030772252</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415546</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V4" t="n">
-        <v>1071.910120335303</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="W4" t="n">
-        <v>1071.910120335303</v>
+        <v>1582.779602640134</v>
       </c>
       <c r="X4" t="n">
-        <v>1071.910120335303</v>
+        <v>1354.790051742117</v>
       </c>
       <c r="Y4" t="n">
-        <v>1071.910120335303</v>
+        <v>1133.997472598587</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1878.169188758594</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1509.206671818182</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.940973211432</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
         <v>934.5673701373257</v>
@@ -4567,7 +4567,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.308520734406</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1878.169188758594</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4649,49 +4649,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>980.7518458718754</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>811.8156629439685</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>661.6990235316327</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>513.7859299492396</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>366.8959824513292</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>199.1931458260482</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
         <v>163.8377936138381</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1383.192889845645</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="Y7" t="n">
-        <v>1162.400310702115</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1528.069587875904</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C8" t="n">
-        <v>1528.069587875904</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1528.069587875904</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,31 +4801,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4834,22 +4834,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2304.808759915837</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1914.669427940025</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="9">
@@ -4859,70 +4859,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>588.3953084626816</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C10" t="n">
-        <v>588.3953084626816</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
-        <v>588.3953084626816</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415546</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1326.59460854119</v>
+        <v>1861.344805938219</v>
       </c>
       <c r="W10" t="n">
-        <v>1037.177438504229</v>
+        <v>1571.927635901259</v>
       </c>
       <c r="X10" t="n">
-        <v>809.1878876062117</v>
+        <v>1343.938085003241</v>
       </c>
       <c r="Y10" t="n">
-        <v>588.3953084626816</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,10 +5053,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854707</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1688.385853854707</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,58 +5269,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5509,52 +5509,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021787</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756786</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.448174698413</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>801.6605733532803</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2413.039864239985</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2230.185029894889</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2010.58356491783</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1721.508338262028</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1721.508338262028</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1432.091168225067</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1204.10161732705</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.30903818352</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168605</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>868.6673633290469</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C25" t="n">
-        <v>699.73118040114</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1560.525577339777</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1271.108407302817</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1271.108407302817</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1050.315828159287</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6408,13 +6408,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
         <v>1735.314832085242</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3118.73869457197</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>2949.802511644064</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D34" t="n">
-        <v>2799.685872231728</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E34" t="n">
-        <v>2651.772778649335</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2504.882831151424</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4327.66168613652</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4038.586459480718</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>4038.586459480718</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3749.169289443757</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3521.17973854574</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3300.38715940221</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>265.0731740618515</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>97.87707477673149</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3118.73869457197</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>2949.802511644064</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>2799.685872231728</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>2651.772778649335</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>2504.882831151424</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>3300.38715940221</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>3300.38715940221</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1840.528062267928</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1585.843574062041</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1296.426404025081</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1068.436853127063</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>40.30478226780068</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>80.98465480592276</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>164.9286282187575</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>131.6786642641545</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.79125956324904</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>8.289762996848935</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>125.5559695740486</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>144.634190040853</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>38.89198472948033</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>34.97276993489203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2749052347519</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>72.44497470121348</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.6207863290898</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.0879475152</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.087947515</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="H2" t="n">
         <v>585181.2847752544</v>
@@ -26337,25 +26337,25 @@
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="K2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="L2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="K2" t="n">
-        <v>585181.2847752545</v>
-      </c>
-      <c r="L2" t="n">
-        <v>585181.2847752545</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="N2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="O2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752545</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073555</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.8428831941</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26444,7 +26444,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
         <v>13606.80811184274</v>
@@ -26453,13 +26453,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184279</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.2460205744</v>
+        <v>-934217.2460205747</v>
       </c>
       <c r="C6" t="n">
-        <v>394527.499707018</v>
+        <v>394527.4997070184</v>
       </c>
       <c r="D6" t="n">
-        <v>394527.4997070185</v>
+        <v>394527.4997070183</v>
       </c>
       <c r="E6" t="n">
-        <v>145039.485032149</v>
+        <v>144692.1057777925</v>
       </c>
       <c r="F6" t="n">
-        <v>470451.9468395046</v>
+        <v>470104.5675851477</v>
       </c>
       <c r="G6" t="n">
-        <v>470451.946839504</v>
+        <v>470104.5675851477</v>
       </c>
       <c r="H6" t="n">
-        <v>470451.9468395049</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="I6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="J6" t="n">
-        <v>252920.744442227</v>
+        <v>252573.3651878701</v>
       </c>
       <c r="K6" t="n">
-        <v>470451.9468395047</v>
+        <v>470104.5675851476</v>
       </c>
       <c r="L6" t="n">
-        <v>470451.9468395047</v>
+        <v>470104.5675851475</v>
       </c>
       <c r="M6" t="n">
-        <v>385396.9189039927</v>
+        <v>385049.5396496358</v>
       </c>
       <c r="N6" t="n">
-        <v>470451.9468395045</v>
+        <v>470104.5675851477</v>
       </c>
       <c r="O6" t="n">
-        <v>470451.9468395046</v>
+        <v>470104.5675851475</v>
       </c>
       <c r="P6" t="n">
-        <v>470451.9468395047</v>
+        <v>470104.5675851476</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>161.1621106678867</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>36.78530491553607</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>19.50652450543961</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>137.8720259467257</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>167.7205030288968</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>191.6652090435732</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>69.34270184147212</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27861,7 +27861,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>88.9709388983901</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>306.4732379112239</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>37.56887922817361</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>186.8473985950574</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491737</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32967,7 +32967,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33028,7 +33028,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,7 +33049,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33259,16 +33259,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33660,7 +33660,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,7 +34234,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,19 +34459,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,25 +35731,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315214</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36615,7 +36615,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36676,7 +36676,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36907,16 +36907,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37308,7 +37308,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2127936.795475873</v>
+        <v>2129697.325778659</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>214.2098670433659</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>205.5146946421453</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>6.882988967595105</v>
+        <v>6.882988967594205</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>194.5727296124804</v>
+        <v>245.3317608950674</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>19.88471653142304</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>149.2419515106227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>79.76470074482967</v>
+        <v>19.68942351146712</v>
       </c>
     </row>
     <row r="9">
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>93.4044447618827</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>14.75529838241564</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1906,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,10 +2004,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>35.56815683447337</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>139.6152205166461</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>171.5422171850884</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2487,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650597</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>22.6126310577748</v>
+        <v>53.08838020946272</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,13 +3663,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>168.5023926007956</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1661.795585684488</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4363,19 +4363,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3109.232218535064</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2778.169331191494</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W2" t="n">
-        <v>2425.400675921379</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.9349176603</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.795585684488</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>952.3490077683472</v>
+        <v>952.3490077683463</v>
       </c>
       <c r="C4" t="n">
-        <v>783.4128248404403</v>
+        <v>783.4128248404394</v>
       </c>
       <c r="D4" t="n">
-        <v>633.2961854281045</v>
+        <v>633.2961854281036</v>
       </c>
       <c r="E4" t="n">
-        <v>485.3830918457114</v>
+        <v>485.3830918457105</v>
       </c>
       <c r="F4" t="n">
-        <v>338.493144347801</v>
+        <v>338.4931443478001</v>
       </c>
       <c r="G4" t="n">
-        <v>170.79030772252</v>
+        <v>170.7903077225191</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1582.779602640134</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1582.779602640134</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="X4" t="n">
-        <v>1354.790051742117</v>
+        <v>1354.790051742116</v>
       </c>
       <c r="Y4" t="n">
-        <v>1133.997472598587</v>
+        <v>1133.997472598586</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4567,10 +4567,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4606,13 +4606,13 @@
         <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>1014.373575514115</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>845.4373925862086</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>695.3207531738728</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>547.4076595914797</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>400.5177120935693</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>232.8148754682883</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>86.59768868614609</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4767,10 +4767,10 @@
         <v>1424.011591242373</v>
       </c>
       <c r="X7" t="n">
-        <v>1424.011591242373</v>
+        <v>1196.022040344355</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1196.022040344355</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4807,13 +4807,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
@@ -4849,7 +4849,7 @@
         <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,49 +4886,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5032,10 +5032,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5554,7 +5554,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.4550657171301</v>
+        <v>1089.57599612053</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>920.6398131926233</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1720.006590992317</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473698</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="20">
@@ -5743,31 +5743,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168605</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6016,25 +6016,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>810.0653816078141</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C25" t="n">
-        <v>641.1291986799072</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>491.0125592675714</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675714</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675714</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="35">
@@ -6919,13 +6919,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7074,16 +7074,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,28 +7095,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2437.724555511392</v>
@@ -7162,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7192,10 +7192,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1807.256643540008</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1552.572155334121</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1263.15498529716</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9658,7 +9658,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>72.11969353038614</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>202.6501519448726</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>131.6786642641545</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>9.000252501566251</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.289762996848935</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>166.0397529241844</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>121.5862749664508</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>144.634190040853</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>117.6820817884485</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>840134.0879475151</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475152</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>840134.087947515</v>
+        <v>840134.0879475151</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516057</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516055</v>
+        <v>595255.2831516056</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752545</v>
-      </c>
       <c r="G2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="L2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="O2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752543</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752544</v>
       </c>
     </row>
     <row r="3">
@@ -26365,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184271</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-934217.2460205747</v>
+        <v>-934217.2460205741</v>
       </c>
       <c r="C6" t="n">
         <v>394527.4997070184</v>
       </c>
       <c r="D6" t="n">
-        <v>394527.4997070183</v>
+        <v>394527.499707018</v>
       </c>
       <c r="E6" t="n">
-        <v>144692.1057777925</v>
+        <v>145004.7471067137</v>
       </c>
       <c r="F6" t="n">
-        <v>470104.5675851477</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="G6" t="n">
-        <v>470104.5675851477</v>
+        <v>470417.2089140691</v>
       </c>
       <c r="H6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="I6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="J6" t="n">
-        <v>252573.3651878701</v>
+        <v>252886.0065167915</v>
       </c>
       <c r="K6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="L6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140688</v>
       </c>
       <c r="M6" t="n">
-        <v>385049.5396496358</v>
+        <v>385362.1809785569</v>
       </c>
       <c r="N6" t="n">
-        <v>470104.5675851477</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="O6" t="n">
-        <v>470104.5675851475</v>
+        <v>470417.2089140686</v>
       </c>
       <c r="P6" t="n">
-        <v>470104.5675851476</v>
+        <v>470417.2089140688</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
@@ -26959,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>36.78530491553607</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>180.7232440139083</v>
       </c>
     </row>
     <row r="3">
@@ -27554,7 +27554,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>137.8720259467257</v>
+        <v>137.8720259467266</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>191.6652090435732</v>
+        <v>140.9061777609862</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>76.46770387841508</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>69.34270184147212</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>306.4732379112239</v>
+        <v>366.5485151445865</v>
       </c>
     </row>
     <row r="9">
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
